--- a/solutions/hashicorp/devops/terraform-enterprise/presales/infrastructure-costs.xlsx
+++ b/solutions/hashicorp/devops/terraform-enterprise/presales/infrastructure-costs.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>HashiCorp Licenses</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1489,7 +1489,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>HashiCorp Licenses</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -1538,7 +1538,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>HashiCorp Licenses</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1587,7 +1587,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1685,7 +1685,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1734,7 +1734,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1783,7 +1783,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1832,7 +1832,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1930,7 +1930,7 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
@@ -1979,7 +1979,7 @@
     <row r="14" ht="26" customHeight="1">
       <c r="A14" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B14" s="48" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="15" ht="26" customHeight="1">
       <c r="A15" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B15" s="44" t="inlineStr">
@@ -2077,7 +2077,7 @@
     <row r="16" ht="26" customHeight="1">
       <c r="A16" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B16" s="48" t="inlineStr">
@@ -2606,7 +2606,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>HashiCorp Licenses</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -2626,7 +2626,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2763,7 +2763,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>HashiCorp Licenses</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2794,7 +2794,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2885,69 +2885,38 @@
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C7" s="46">
-        <f>SUMIF(Credits!$A:$A,A7,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D7" s="46">
-        <f>B7+C7</f>
-        <v/>
-      </c>
-      <c r="E7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G7" s="46">
-        <f>D7+E7+F7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="51" t="inlineStr">
+      <c r="A7" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B8" s="53">
-        <f>SUM(B3:B7)</f>
-        <v/>
-      </c>
-      <c r="C8" s="53">
-        <f>SUM(C3:C7)</f>
-        <v/>
-      </c>
-      <c r="D8" s="53">
-        <f>SUM(D3:D7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="53">
-        <f>SUM(E3:E7)</f>
-        <v/>
-      </c>
-      <c r="F8" s="53">
-        <f>SUM(F3:F7)</f>
-        <v/>
-      </c>
-      <c r="G8" s="53">
-        <f>SUM(G3:G7)</f>
+      <c r="B7" s="53">
+        <f>SUM(B3:B6)</f>
+        <v/>
+      </c>
+      <c r="C7" s="53">
+        <f>SUM(C3:C6)</f>
+        <v/>
+      </c>
+      <c r="D7" s="53">
+        <f>SUM(D3:D6)</f>
+        <v/>
+      </c>
+      <c r="E7" s="53">
+        <f>SUM(E3:E6)</f>
+        <v/>
+      </c>
+      <c r="F7" s="53">
+        <f>SUM(F3:F6)</f>
+        <v/>
+      </c>
+      <c r="G7" s="53">
+        <f>SUM(G3:G6)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G8"/>
+  <autoFilter ref="A2:G7"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
